--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2009.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2009.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160993517954122</v>
+        <v>1.071804404258728</v>
       </c>
       <c r="B1">
-        <v>2.315475184605778</v>
+        <v>3.077982187271118</v>
       </c>
       <c r="C1">
-        <v>7.904172470975757</v>
+        <v>6.624104499816895</v>
       </c>
       <c r="D1">
-        <v>2.427740158912004</v>
+        <v>1.828423857688904</v>
       </c>
       <c r="E1">
-        <v>1.222901458488944</v>
+        <v>1.275410771369934</v>
       </c>
     </row>
   </sheetData>
